--- a/v1.0/mixgo_Pin.xlsx
+++ b/v1.0/mixgo_Pin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredqian\Documents\Tencent Files\1034893654\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredqian\Documents\GitHub\mixgo\v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>MixGO Ver 1.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -441,12 +441,76 @@
     <t>ADC3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,12 +535,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -574,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -589,10 +647,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -604,10 +660,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -619,7 +673,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -632,7 +688,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -648,7 +706,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -663,6 +721,86 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -672,30 +810,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -704,92 +821,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,708 +1225,852 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="N2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="N26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="N27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="15" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="23" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="N29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="23" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="N30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="28" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="28"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D9:M14"/>
+    <mergeCell ref="D9:P14"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
